--- a/Wave 5_React_Tracker_(Yeshwanth).xlsx
+++ b/Wave 5_React_Tracker_(Yeshwanth).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -67,9 +67,6 @@
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> In progress</t>
   </si>
 </sst>
 </file>
@@ -401,7 +398,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,7 +409,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -500,7 +497,7 @@
         <v>15</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H4" s="3"/>
     </row>

--- a/Wave 5_React_Tracker_(Yeshwanth).xlsx
+++ b/Wave 5_React_Tracker_(Yeshwanth).xlsx
@@ -63,10 +63,10 @@
     <t>Git URL: https://github.com/yeshwanth1206</t>
   </si>
   <si>
-    <t>23/08/2015</t>
-  </si>
-  <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>25/08/2015</t>
   </si>
 </sst>
 </file>
@@ -408,8 +408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -421,7 +421,7 @@
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="24.140625" customWidth="1"/>
     <col min="7" max="7" width="42.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.85546875" customWidth="1"/>
+    <col min="8" max="8" width="44" customWidth="1"/>
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="31.42578125" customWidth="1"/>
@@ -479,25 +479,25 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H4" s="3"/>
     </row>

--- a/Wave 5_React_Tracker_(Yeshwanth).xlsx
+++ b/Wave 5_React_Tracker_(Yeshwanth).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>25/08/2015</t>
+  </si>
+  <si>
+    <t>sent is done/(IMPORTANT/DRAFT is progressing)</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,7 +412,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -477,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -499,7 +502,9 @@
       <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Wave 5_React_Tracker_(Yeshwanth).xlsx
+++ b/Wave 5_React_Tracker_(Yeshwanth).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -66,10 +66,10 @@
     <t>Done</t>
   </si>
   <si>
-    <t>25/08/2015</t>
-  </si>
-  <si>
-    <t>sent is done/(IMPORTANT/DRAFT is progressing)</t>
+    <t>26/08/2015</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -503,6 +503,12 @@
         <v>14</v>
       </c>
       <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Wave 5_React_Tracker_(Yeshwanth).xlsx
+++ b/Wave 5_React_Tracker_(Yeshwanth).xlsx
@@ -66,10 +66,10 @@
     <t>Done</t>
   </si>
   <si>
-    <t>26/08/2015</t>
-  </si>
-  <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>28/08/2015</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -482,34 +482,34 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Wave 5_React_Tracker_(Yeshwanth).xlsx
+++ b/Wave 5_React_Tracker_(Yeshwanth).xlsx
@@ -401,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Wave 5_React_Tracker_(Yeshwanth).xlsx
+++ b/Wave 5_React_Tracker_(Yeshwanth).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -401,7 +401,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,6 +509,9 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
         <v>15</v>
       </c>
     </row>

--- a/Wave 5_React_Tracker_(Yeshwanth).xlsx
+++ b/Wave 5_React_Tracker_(Yeshwanth).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>React Basics (Architecture, Concepts, Lifecycle)</t>
   </si>
@@ -66,10 +66,7 @@
     <t>Done</t>
   </si>
   <si>
-    <t>In Progress</t>
-  </si>
-  <si>
-    <t>28/08/2015</t>
+    <t>30/08/2015</t>
   </si>
 </sst>
 </file>
@@ -428,6 +425,7 @@
     <col min="9" max="9" width="23.85546875" customWidth="1"/>
     <col min="10" max="10" width="20" customWidth="1"/>
     <col min="11" max="11" width="31.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -482,7 +480,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -509,7 +507,13 @@
         <v>14</v>
       </c>
       <c r="J4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
